--- a/motherboard/formato das intrucoes.xlsx
+++ b/motherboard/formato das intrucoes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maico\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maico\Desktop\motherboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183021DA-6289-464D-AB5F-822A04C9E308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC32B9C5-F692-44D4-B380-26CD2084AF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -241,15 +241,15 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,2004 +533,2004 @@
   <dimension ref="A1:M80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+      <selection activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="I1" s="1" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="I1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="2" t="s">
+      <c r="J1" s="4"/>
+      <c r="K1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="I2" s="4" t="s">
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="L2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="3" t="s">
+      <c r="L3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="3" t="s">
+      <c r="L4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="5"/>
-      <c r="L5" s="3"/>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="3"/>
+      <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6" s="3" t="s">
+      <c r="L6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="4" t="s">
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" s="3" t="s">
+      <c r="L7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="4" t="s">
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M8" s="3" t="s">
+      <c r="L8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="4" t="s">
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3" t="s">
+      <c r="L10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="4" t="s">
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M11" s="3" t="s">
+      <c r="L11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="4" t="s">
+      <c r="D12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M12" s="3" t="s">
+      <c r="L12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="4" t="s">
+      <c r="D13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M13" s="3" t="s">
+      <c r="L13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="4" t="s">
+      <c r="D14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="L14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="4" t="s">
+      <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M15" s="3" t="s">
+      <c r="L15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="4" t="s">
+      <c r="D16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M16" s="3" t="s">
+      <c r="L16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="3"/>
-      <c r="I17" s="4" t="s">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="1"/>
+      <c r="I17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M17" s="3" t="s">
+      <c r="L17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="4" t="s">
+      <c r="D18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M18" s="3" t="s">
+      <c r="L18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="4" t="s">
+      <c r="D19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M19" s="3" t="s">
+      <c r="L19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="4" t="s">
+      <c r="D20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M20" s="3" t="s">
+      <c r="L20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="4" t="s">
+      <c r="D21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M21" s="3" t="s">
+      <c r="L21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M21" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="D22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="4" t="s">
+      <c r="D23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="K23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3" t="s">
+      <c r="L23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="4" t="s">
+      <c r="D24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="J24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3" t="s">
+      <c r="L24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" s="4" t="s">
+      <c r="D25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="K25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L25" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M25" s="3" t="s">
+      <c r="L25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M25" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" s="4" t="s">
+      <c r="D26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="J26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="K26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="3" t="s">
+      <c r="L26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I27" s="4" t="s">
+      <c r="D27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="J27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="K27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M27" s="3" t="s">
+      <c r="L27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M27" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" s="4" t="s">
+      <c r="D28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="J28" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="K28" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M28" s="3" t="s">
+      <c r="L28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M28" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="4" t="s">
+      <c r="D29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J29" s="5" t="s">
+      <c r="J29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="K29" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M29" s="3" t="s">
+      <c r="L29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I30" s="4" t="s">
+      <c r="D30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J30" s="5" t="s">
+      <c r="J30" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="K30" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M30" s="3" t="s">
+      <c r="L30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M30" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I31" s="4" t="s">
+      <c r="D31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J31" s="5" t="s">
+      <c r="J31" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="K31" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M31" s="3" t="s">
+      <c r="L31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M31" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" s="4" t="s">
+      <c r="D32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J32" s="5" t="s">
+      <c r="J32" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="K32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M32" s="3" t="s">
+      <c r="L32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M32" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="3"/>
-      <c r="I33" s="4" t="s">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="1"/>
+      <c r="I33" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J33" s="5" t="s">
+      <c r="J33" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="K33" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M33" s="3" t="s">
+      <c r="L33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M33" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I34" s="4" t="s">
+      <c r="D34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I34" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J34" s="5" t="s">
+      <c r="J34" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="K34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L34" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M34" s="3" t="s">
+      <c r="L34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M34" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
+      <c r="D35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I36" s="4" t="s">
+      <c r="D36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J36" s="5" t="s">
+      <c r="J36" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="K36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L36" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M36" s="3" t="s">
+      <c r="L36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M36" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I37" s="4" t="s">
+      <c r="D37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J37" s="5" t="s">
+      <c r="J37" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="K37" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L37" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M37" s="3" t="s">
+      <c r="L37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M37" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I38" s="4" t="s">
+      <c r="D38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I38" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J38" s="5" t="s">
+      <c r="J38" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="K38" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L38" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M38" s="3" t="s">
+      <c r="L38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M38" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I39" s="4" t="s">
+      <c r="D39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J39" s="5" t="s">
+      <c r="J39" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K39" s="3" t="s">
+      <c r="K39" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L39" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M39" s="3" t="s">
+      <c r="L39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M39" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I40" s="4" t="s">
+      <c r="D40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J40" s="5" t="s">
+      <c r="J40" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K40" s="3" t="s">
+      <c r="K40" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L40" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M40" s="3" t="s">
+      <c r="L40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M40" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I41" s="4" t="s">
+      <c r="D41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J41" s="5" t="s">
+      <c r="J41" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K41" s="3" t="s">
+      <c r="K41" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M41" s="3" t="s">
+      <c r="L41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M41" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
+      <c r="D42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I43" s="4" t="s">
+      <c r="D43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J43" s="5" t="s">
+      <c r="J43" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="K43" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M43" s="3" t="s">
+      <c r="L43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I44" s="4" t="s">
+      <c r="D44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J44" s="5" t="s">
+      <c r="J44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K44" s="3" t="s">
+      <c r="K44" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M44" s="3" t="s">
+      <c r="L44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M44" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I45" s="4" t="s">
+      <c r="D45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J45" s="5" t="s">
+      <c r="J45" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="K45" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M45" s="3" t="s">
+      <c r="L45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M45" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
+      <c r="D46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I47" s="4" t="s">
+      <c r="D47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J47" s="5" t="s">
+      <c r="J47" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K47" s="3" t="s">
+      <c r="K47" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M47" s="3" t="s">
+      <c r="L47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I48" s="4" t="s">
+      <c r="D48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J48" s="5" t="s">
+      <c r="J48" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K48" s="3" t="s">
+      <c r="K48" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M48" s="3" t="s">
+      <c r="L48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M48" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="3"/>
-      <c r="I49" s="4" t="s">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="1"/>
+      <c r="I49" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J49" s="5" t="s">
+      <c r="J49" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="K49" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M49" s="3" t="s">
+      <c r="L49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M49" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
+      <c r="D50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I51" s="4" t="s">
+      <c r="D51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J51" s="5" t="s">
+      <c r="J51" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K51" s="3" t="s">
+      <c r="K51" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L51" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M51" s="3" t="s">
+      <c r="L51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M51" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
+      <c r="D52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I53" s="4" t="s">
+      <c r="D53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I53" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J53" s="5" t="s">
+      <c r="J53" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K53" s="3">
+      <c r="K53" s="1">
         <v>1111</v>
       </c>
-      <c r="L53" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M53" s="3" t="s">
+      <c r="L53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M53" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="3" t="s">
+      <c r="D54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="3" t="s">
+      <c r="D55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="3" t="s">
+      <c r="D56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" s="3" t="s">
+      <c r="D57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58" s="3" t="s">
+      <c r="D58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" s="3" t="s">
+      <c r="D59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E60" s="3" t="s">
+      <c r="D60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E61" s="3" t="s">
+      <c r="D61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E62" s="3" t="s">
+      <c r="D62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E63" s="3" t="s">
+      <c r="D63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E64" s="3" t="s">
+      <c r="D64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="3"/>
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="1"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" s="3" t="s">
+      <c r="D66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E67" s="3" t="s">
+      <c r="D67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E68" s="3" t="s">
+      <c r="D68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E69" s="3" t="s">
+      <c r="D69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70" s="3" t="s">
+      <c r="D70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D71" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71" s="3" t="s">
+      <c r="D71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" s="3" t="s">
+      <c r="D72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D73" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E73" s="3" t="s">
+      <c r="D73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E74" s="3" t="s">
+      <c r="D74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D75" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E75" s="3" t="s">
+      <c r="D75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E76" s="3" t="s">
+      <c r="D76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D77" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E77" s="3" t="s">
+      <c r="D77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D78" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E78" s="3" t="s">
+      <c r="D78" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D79" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E79" s="3" t="s">
+      <c r="D79" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D80" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E80" s="3" t="s">
+      <c r="D80" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>15</v>
       </c>
     </row>
